--- a/Pairwise.xlsx
+++ b/Pairwise.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\es.gusev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\es.gusev\Documents\GitHub\praktika\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -249,10 +249,10 @@
     <t>Условие 1</t>
   </si>
   <si>
-    <t>не влияет на статистику</t>
-  </si>
-  <si>
-    <t>влияет на статистику</t>
+    <t>Счетчик не меняется</t>
+  </si>
+  <si>
+    <t>Счетчик меняется</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
